--- a/GUT Adaptado - SmartRow.xlsx
+++ b/GUT Adaptado - SmartRow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\OneDrive - Fatec Centro Paula Souza\Projeto Interdisciplinar Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543ED7B-5D89-46A1-9A28-97B09A33BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05602795-14AE-4F7D-A2E8-FDDE85260852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +183,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +239,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,9 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -477,6 +494,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,7 +721,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -708,30 +734,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="27" t="s">
+        <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -748,31 +766,28 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="11">
-        <v>5</v>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C2" s="11">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D2" s="11">
-        <v>5</v>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="E2" s="12">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13">
-        <f>SUM(B2:E2)</f>
-        <v>20</v>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -789,31 +804,31 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
+      <c r="A3" s="9" t="s">
+        <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>5</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <v>5</v>
       </c>
-      <c r="F3" s="13">
-        <f>SUM(B3:E3)</f>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F34" si="0">SUM(B3:E3)</f>
         <v>20</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -830,31 +845,31 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>5</v>
       </c>
-      <c r="F4" s="13">
-        <f>SUM(B4:E4)</f>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -871,23 +886,23 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
+      <c r="A5" s="9" t="s">
+        <v>9</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
-        <f>SUM(B5:E5)</f>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G5" s="5"/>
@@ -912,23 +927,23 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
+      <c r="A6" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="13">
-        <f>SUM(B6:E6)</f>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G6" s="5"/>
@@ -953,23 +968,23 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
+      <c r="A7" s="9" t="s">
+        <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="13">
-        <f>SUM(B7:E7)</f>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G7" s="5"/>
@@ -994,23 +1009,23 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="10" t="s">
-        <v>17</v>
+      <c r="A8" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
-        <f>SUM(B8:E8)</f>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G8" s="5"/>
@@ -1035,23 +1050,23 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
+      <c r="A9" s="9" t="s">
+        <v>17</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="13">
-        <f>SUM(B9:E9)</f>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G9" s="5"/>
@@ -1076,23 +1091,23 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
+      <c r="A10" s="9" t="s">
+        <v>27</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
-        <f>SUM(B10:E10)</f>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G10" s="5"/>
@@ -1117,27 +1132,27 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="6" t="s">
-        <v>30</v>
+      <c r="A11" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="13">
-        <f>SUM(B11:E11)</f>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1156,13 +1171,13 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7">
         <v>5</v>
@@ -1171,14 +1186,14 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="F12" s="13">
-        <f>SUM(B12:E12)</f>
-        <v>19</v>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1200,29 +1215,29 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="10" t="s">
-        <v>19</v>
+      <c r="A13" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="B13" s="11">
-        <v>3</v>
+      <c r="B13" s="7">
+        <v>5</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13">
-        <f>SUM(B13:E13)</f>
-        <v>14</v>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1244,38 +1259,38 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
+      <c r="A14" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
-        <v>3</v>
+      <c r="D14" s="10">
+        <v>5</v>
       </c>
-      <c r="E14" s="8">
-        <v>4</v>
+      <c r="E14" s="11">
+        <v>2</v>
       </c>
-      <c r="F14" s="13">
-        <f>SUM(B14:E14)</f>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1288,13 +1303,13 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
@@ -1303,23 +1318,23 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="8">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13">
-        <f>SUM(B15:E15)</f>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1332,38 +1347,38 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
+      <c r="A16" s="6" t="s">
+        <v>38</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C16" s="11">
-        <v>2</v>
+      <c r="C16" s="7">
+        <v>4</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="12">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13">
-        <f>SUM(B16:E16)</f>
-        <v>13</v>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1376,28 +1391,28 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
+      <c r="A17" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>4</v>
+      <c r="E17" s="11">
+        <v>5</v>
       </c>
-      <c r="E17" s="8">
-        <v>3</v>
-      </c>
-      <c r="F17" s="13">
-        <f>SUM(B17:E17)</f>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G17" s="5"/>
@@ -1420,28 +1435,28 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="10" t="s">
-        <v>31</v>
+      <c r="A18" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="11">
-        <v>5</v>
+      <c r="E18" s="8">
+        <v>3</v>
       </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
-        <f>SUM(B18:E18)</f>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G18" s="5"/>
@@ -1464,29 +1479,29 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
+      <c r="A19" s="9" t="s">
+        <v>31</v>
       </c>
-      <c r="B19" s="7">
-        <v>2</v>
+      <c r="B19" s="10">
+        <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="10">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="10">
         <v>5</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="13">
-        <f>SUM(B19:E19)</f>
-        <v>12</v>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1508,13 +1523,13 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -1528,8 +1543,8 @@
       <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="13">
-        <f>SUM(B20:E20)</f>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G20" s="5"/>
@@ -1552,28 +1567,28 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="13">
-        <f>SUM(B21:E21)</f>
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G21" s="5"/>
@@ -1596,29 +1611,29 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="F22" s="13">
-        <f>SUM(B22:E22)</f>
-        <v>11</v>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1640,28 +1655,28 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>23</v>
+      <c r="A23" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="11">
-        <v>4</v>
+      <c r="C23" s="7">
+        <v>3</v>
       </c>
-      <c r="D23" s="11">
-        <v>4</v>
+      <c r="D23" s="7">
+        <v>3</v>
       </c>
-      <c r="E23" s="12">
-        <v>1</v>
+      <c r="E23" s="8">
+        <v>3</v>
       </c>
-      <c r="F23" s="13">
-        <f>SUM(B23:E23)</f>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G23" s="5"/>
@@ -1684,28 +1699,28 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>36</v>
+      <c r="A24" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="B24" s="7">
-        <v>3</v>
+      <c r="B24" s="10">
+        <v>2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="10">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
-        <v>2</v>
+      <c r="D24" s="10">
+        <v>4</v>
       </c>
-      <c r="E24" s="8">
-        <v>2</v>
+      <c r="E24" s="11">
+        <v>1</v>
       </c>
-      <c r="F24" s="13">
-        <f>SUM(B24:E24)</f>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G24" s="5"/>
@@ -1728,29 +1743,29 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>13</v>
+      <c r="A25" s="6" t="s">
+        <v>36</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="C25" s="11">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11">
-        <v>3</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <v>2</v>
       </c>
-      <c r="F25" s="13">
-        <f>SUM(B25:E25)</f>
-        <v>10</v>
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1772,29 +1787,29 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>21</v>
+      <c r="A26" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>2</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>3</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>3</v>
       </c>
-      <c r="E26" s="12">
-        <v>1</v>
+      <c r="E26" s="11">
+        <v>2</v>
       </c>
-      <c r="F26" s="13">
-        <f>SUM(B26:E26)</f>
-        <v>9</v>
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1816,29 +1831,29 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>16</v>
+      <c r="A27" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
         <v>3</v>
       </c>
-      <c r="C27" s="7">
-        <v>2</v>
+      <c r="D27" s="10">
+        <v>3</v>
       </c>
-      <c r="D27" s="7">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="F27" s="13">
-        <f>SUM(B27:E27)</f>
-        <v>8</v>
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1860,28 +1875,28 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>25</v>
+      <c r="A28" s="6" t="s">
+        <v>16</v>
       </c>
-      <c r="B28" s="11">
-        <v>4</v>
+      <c r="B28" s="7">
+        <v>3</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="11">
-        <v>2</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
-        <f>SUM(B28:E28)</f>
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G28" s="5"/>
@@ -1904,28 +1919,28 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>35</v>
+      <c r="A29" s="9" t="s">
+        <v>25</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
         <v>2</v>
       </c>
-      <c r="C29" s="11">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11">
-        <v>2</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="F29" s="13">
-        <f>SUM(B29:E29)</f>
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G29" s="5"/>
@@ -1948,28 +1963,28 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>37</v>
+      <c r="A30" s="9" t="s">
+        <v>35</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>2</v>
       </c>
-      <c r="C30" s="11">
-        <v>4</v>
+      <c r="C30" s="10">
+        <v>3</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11">
         <v>1</v>
       </c>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13">
-        <f>SUM(B30:E30)</f>
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G30" s="5"/>
@@ -1982,39 +1997,39 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>33</v>
+      <c r="A31" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="11">
-        <v>2</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
-      <c r="F31" s="13">
-        <f>SUM(B31:E31)</f>
-        <v>6</v>
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2026,39 +2041,39 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>20</v>
+      <c r="A32" s="9" t="s">
+        <v>33</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="10">
         <v>2</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13">
-        <f>SUM(B32:E32)</f>
-        <v>5</v>
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2070,23 +2085,23 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B33" s="7">
         <v>2</v>
@@ -2100,8 +2115,8 @@
       <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="13">
-        <f>SUM(B33:E33)</f>
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G33" s="5"/>
@@ -2114,29 +2129,40 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2147,22 +2173,22 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2178,19 +2204,19 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
@@ -2209,19 +2235,19 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1">
       <c r="A37" s="5"/>
@@ -2240,19 +2266,19 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
@@ -2271,19 +2297,19 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
@@ -2302,19 +2328,19 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
@@ -2333,19 +2359,19 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
@@ -2364,19 +2390,19 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1">
       <c r="A42" s="5"/>
@@ -2395,19 +2421,19 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
@@ -2426,19 +2452,19 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1">
       <c r="A44" s="5"/>
@@ -2457,19 +2483,19 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1">
       <c r="A45" s="5"/>
@@ -2488,19 +2514,19 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
@@ -2529,9 +2555,9 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1">
       <c r="A47" s="5"/>
@@ -2560,9 +2586,9 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1">
       <c r="A48" s="5"/>
@@ -2591,9 +2617,9 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1">
       <c r="A49" s="5"/>
@@ -2622,9 +2648,9 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1">
       <c r="A50" s="5"/>
@@ -2653,9 +2679,9 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="15"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1">
       <c r="A51" s="5"/>
@@ -2684,9 +2710,9 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1">
       <c r="A52" s="5"/>
@@ -2715,9 +2741,9 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="15"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1">
       <c r="A53" s="5"/>
@@ -2746,9 +2772,9 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1">
       <c r="A54" s="5"/>
@@ -2777,9 +2803,9 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1">
       <c r="A55" s="5"/>
@@ -2808,9 +2834,9 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1">
       <c r="A56" s="5"/>
@@ -2839,9 +2865,9 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="15"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1">
       <c r="A57" s="5"/>
@@ -2870,9 +2896,9 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1">
       <c r="A58" s="5"/>
@@ -2901,9 +2927,9 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
-      <c r="AC58" s="15"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1">
       <c r="A59" s="5"/>
@@ -2932,9 +2958,9 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
     </row>
     <row r="60" spans="1:29" ht="15.75" customHeight="1">
       <c r="A60" s="5"/>
@@ -2963,9 +2989,9 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="14"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="5"/>
@@ -2994,9 +3020,9 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-      <c r="AC61" s="15"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1">
       <c r="A62" s="5"/>
@@ -3025,9 +3051,9 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
     </row>
     <row r="63" spans="1:29" ht="15.75" customHeight="1">
       <c r="A63" s="5"/>
@@ -3056,9 +3082,9 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="5"/>
@@ -3087,9 +3113,9 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
     </row>
     <row r="65" spans="1:29" ht="15.75" customHeight="1">
       <c r="A65" s="5"/>
@@ -3118,9 +3144,9 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1">
       <c r="A66" s="5"/>
@@ -3149,9 +3175,9 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="15"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="5"/>
@@ -3180,9 +3206,9 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="5"/>
@@ -3211,9 +3237,9 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="15"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
     </row>
     <row r="69" spans="1:29" ht="15.75" customHeight="1">
       <c r="A69" s="5"/>
@@ -3242,9 +3268,9 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="15"/>
-      <c r="AC69" s="15"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="5"/>
@@ -3273,9 +3299,9 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="15"/>
-      <c r="AC70" s="15"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
     </row>
     <row r="71" spans="1:29" ht="15.75" customHeight="1">
       <c r="A71" s="5"/>
@@ -3304,9 +3330,9 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="15"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
     </row>
     <row r="72" spans="1:29" ht="15.75" customHeight="1">
       <c r="A72" s="5"/>
@@ -3335,9 +3361,9 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1">
       <c r="A73" s="5"/>
@@ -3366,9 +3392,9 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="15"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="14"/>
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1">
       <c r="A74" s="5"/>
@@ -3397,9 +3423,9 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
-      <c r="AC74" s="15"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
     </row>
     <row r="75" spans="1:29" ht="15.75" customHeight="1">
       <c r="A75" s="5"/>
@@ -3428,9 +3454,9 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="15"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="14"/>
     </row>
     <row r="76" spans="1:29" ht="15.75" customHeight="1">
       <c r="A76" s="5"/>
@@ -3459,9 +3485,9 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="15"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
       <c r="A77" s="5"/>
@@ -3490,9 +3516,9 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15"/>
-      <c r="AC77" s="15"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AC77" s="14"/>
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1">
       <c r="A78" s="5"/>
@@ -3521,9 +3547,9 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="15"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AC78" s="14"/>
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1">
       <c r="A79" s="5"/>
@@ -3552,9 +3578,9 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="15"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
@@ -3583,9 +3609,9 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-      <c r="AA80" s="15"/>
-      <c r="AB80" s="15"/>
-      <c r="AC80" s="15"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
+      <c r="AC80" s="14"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
@@ -3614,9 +3640,9 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
-      <c r="AA81" s="15"/>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="15"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
+      <c r="AC81" s="14"/>
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
       <c r="A82" s="5"/>
@@ -3645,9 +3671,9 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-      <c r="AA82" s="15"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="15"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="5"/>
@@ -3676,9 +3702,9 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
-      <c r="AA83" s="15"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="15"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
       <c r="A84" s="5"/>
@@ -3707,9 +3733,9 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
-      <c r="AA84" s="15"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="15"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="14"/>
+      <c r="AC84" s="14"/>
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
       <c r="A85" s="5"/>
@@ -3738,9 +3764,9 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
-      <c r="AA85" s="15"/>
-      <c r="AB85" s="15"/>
-      <c r="AC85" s="15"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="14"/>
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
       <c r="A86" s="5"/>
@@ -3769,9 +3795,9 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
-      <c r="AA86" s="15"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="15"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
       <c r="A87" s="5"/>
@@ -3800,9 +3826,9 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
-      <c r="AA87" s="15"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="15"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="14"/>
+      <c r="AC87" s="14"/>
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1">
       <c r="A88" s="5"/>
@@ -3831,9 +3857,9 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
-      <c r="AA88" s="15"/>
-      <c r="AB88" s="15"/>
-      <c r="AC88" s="15"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="14"/>
+      <c r="AC88" s="14"/>
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="5"/>
@@ -3862,9 +3888,9 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
-      <c r="AA89" s="15"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="15"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
+      <c r="AC89" s="14"/>
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1">
       <c r="A90" s="5"/>
@@ -3893,9 +3919,9 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
-      <c r="AA90" s="15"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="15"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="14"/>
+      <c r="AC90" s="14"/>
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1">
       <c r="A91" s="5"/>
@@ -3924,9 +3950,9 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
-      <c r="AA91" s="15"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="15"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
+      <c r="AC91" s="14"/>
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1">
       <c r="A92" s="5"/>
@@ -3955,9 +3981,9 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
-      <c r="AA92" s="15"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="15"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1">
       <c r="A93" s="5"/>
@@ -3986,9 +4012,9 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
-      <c r="AA93" s="15"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="15"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="14"/>
+      <c r="AC93" s="14"/>
     </row>
     <row r="94" spans="1:29" ht="15.75" customHeight="1">
       <c r="A94" s="5"/>
@@ -4017,9 +4043,9 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
-      <c r="AA94" s="15"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="15"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="14"/>
+      <c r="AC94" s="14"/>
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="5"/>
@@ -4048,9 +4074,9 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
-      <c r="AA95" s="15"/>
-      <c r="AB95" s="15"/>
-      <c r="AC95" s="15"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="14"/>
+      <c r="AC95" s="14"/>
     </row>
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="5"/>
@@ -4079,9 +4105,9 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
-      <c r="AA96" s="15"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="15"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="14"/>
     </row>
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="5"/>
@@ -4110,9 +4136,9 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
-      <c r="AA97" s="15"/>
-      <c r="AB97" s="15"/>
-      <c r="AC97" s="15"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
+      <c r="AC97" s="14"/>
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="5"/>
@@ -4141,9 +4167,9 @@
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
-      <c r="AA98" s="15"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="15"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="14"/>
+      <c r="AC98" s="14"/>
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="5"/>
@@ -4172,9 +4198,9 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
-      <c r="AA99" s="15"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="15"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="14"/>
+      <c r="AC99" s="14"/>
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
       <c r="A100" s="5"/>
@@ -4203,9 +4229,9 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
-      <c r="AA100" s="15"/>
-      <c r="AB100" s="15"/>
-      <c r="AC100" s="15"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="14"/>
+      <c r="AC100" s="14"/>
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="5"/>
@@ -4234,9 +4260,9 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
-      <c r="AA101" s="15"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="15"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="14"/>
+      <c r="AC101" s="14"/>
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1">
       <c r="A102" s="5"/>
@@ -4265,9 +4291,9 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
-      <c r="AA102" s="15"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="15"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="14"/>
+      <c r="AC102" s="14"/>
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1">
       <c r="A103" s="5"/>
@@ -4296,9 +4322,9 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
-      <c r="AA103" s="15"/>
-      <c r="AB103" s="15"/>
-      <c r="AC103" s="15"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="14"/>
+      <c r="AC103" s="14"/>
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1">
       <c r="A104" s="5"/>
@@ -4327,9 +4353,9 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
-      <c r="AA104" s="15"/>
-      <c r="AB104" s="15"/>
-      <c r="AC104" s="15"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="14"/>
+      <c r="AC104" s="14"/>
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1">
       <c r="A105" s="5"/>
@@ -4358,9 +4384,9 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="14"/>
+      <c r="AC105" s="14"/>
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1">
       <c r="A106" s="5"/>
@@ -4389,9 +4415,9 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
-      <c r="AA106" s="15"/>
-      <c r="AB106" s="15"/>
-      <c r="AC106" s="15"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="14"/>
+      <c r="AC106" s="14"/>
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
@@ -4420,9 +4446,9 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
-      <c r="AA107" s="15"/>
-      <c r="AB107" s="15"/>
-      <c r="AC107" s="15"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="14"/>
+      <c r="AC107" s="14"/>
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
@@ -4451,9 +4477,9 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
-      <c r="AA108" s="15"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="15"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="14"/>
+      <c r="AC108" s="14"/>
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
@@ -4482,9 +4508,9 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
-      <c r="AA109" s="15"/>
-      <c r="AB109" s="15"/>
-      <c r="AC109" s="15"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="14"/>
+      <c r="AC109" s="14"/>
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
       <c r="A110" s="5"/>
@@ -4513,9 +4539,9 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
-      <c r="AA110" s="15"/>
-      <c r="AB110" s="15"/>
-      <c r="AC110" s="15"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="14"/>
+      <c r="AC110" s="14"/>
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
@@ -4544,9 +4570,9 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
-      <c r="AA111" s="15"/>
-      <c r="AB111" s="15"/>
-      <c r="AC111" s="15"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="14"/>
+      <c r="AC111" s="14"/>
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
       <c r="A112" s="5"/>
@@ -4575,9 +4601,9 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
-      <c r="AA112" s="15"/>
-      <c r="AB112" s="15"/>
-      <c r="AC112" s="15"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="14"/>
+      <c r="AC112" s="14"/>
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="5"/>
@@ -4606,9 +4632,9 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
-      <c r="AA113" s="15"/>
-      <c r="AB113" s="15"/>
-      <c r="AC113" s="15"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="14"/>
+      <c r="AC113" s="14"/>
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
       <c r="A114" s="5"/>
@@ -4637,9 +4663,9 @@
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
-      <c r="AA114" s="15"/>
-      <c r="AB114" s="15"/>
-      <c r="AC114" s="15"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
+      <c r="AC114" s="14"/>
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1">
       <c r="A115" s="5"/>
@@ -4668,9 +4694,9 @@
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
-      <c r="AA115" s="15"/>
-      <c r="AB115" s="15"/>
-      <c r="AC115" s="15"/>
+      <c r="AA115" s="14"/>
+      <c r="AB115" s="14"/>
+      <c r="AC115" s="14"/>
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="5"/>
@@ -4699,9 +4725,9 @@
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
-      <c r="AA116" s="15"/>
-      <c r="AB116" s="15"/>
-      <c r="AC116" s="15"/>
+      <c r="AA116" s="14"/>
+      <c r="AB116" s="14"/>
+      <c r="AC116" s="14"/>
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="5"/>
@@ -4730,9 +4756,9 @@
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
-      <c r="AA117" s="15"/>
-      <c r="AB117" s="15"/>
-      <c r="AC117" s="15"/>
+      <c r="AA117" s="14"/>
+      <c r="AB117" s="14"/>
+      <c r="AC117" s="14"/>
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="5"/>
@@ -4761,9 +4787,9 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
-      <c r="AA118" s="15"/>
-      <c r="AB118" s="15"/>
-      <c r="AC118" s="15"/>
+      <c r="AA118" s="14"/>
+      <c r="AB118" s="14"/>
+      <c r="AC118" s="14"/>
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="5"/>
@@ -4792,9 +4818,9 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
-      <c r="AA119" s="15"/>
-      <c r="AB119" s="15"/>
-      <c r="AC119" s="15"/>
+      <c r="AA119" s="14"/>
+      <c r="AB119" s="14"/>
+      <c r="AC119" s="14"/>
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="5"/>
@@ -4823,9 +4849,9 @@
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
-      <c r="AA120" s="15"/>
-      <c r="AB120" s="15"/>
-      <c r="AC120" s="15"/>
+      <c r="AA120" s="14"/>
+      <c r="AB120" s="14"/>
+      <c r="AC120" s="14"/>
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="5"/>
@@ -4854,9 +4880,9 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
-      <c r="AA121" s="15"/>
-      <c r="AB121" s="15"/>
-      <c r="AC121" s="15"/>
+      <c r="AA121" s="14"/>
+      <c r="AB121" s="14"/>
+      <c r="AC121" s="14"/>
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1">
       <c r="A122" s="5"/>
@@ -4885,9 +4911,9 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
-      <c r="AA122" s="15"/>
-      <c r="AB122" s="15"/>
-      <c r="AC122" s="15"/>
+      <c r="AA122" s="14"/>
+      <c r="AB122" s="14"/>
+      <c r="AC122" s="14"/>
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1">
       <c r="A123" s="5"/>
@@ -4916,9 +4942,9 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
-      <c r="AA123" s="15"/>
-      <c r="AB123" s="15"/>
-      <c r="AC123" s="15"/>
+      <c r="AA123" s="14"/>
+      <c r="AB123" s="14"/>
+      <c r="AC123" s="14"/>
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1">
       <c r="A124" s="5"/>
@@ -4947,9 +4973,9 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
-      <c r="AA124" s="15"/>
-      <c r="AB124" s="15"/>
-      <c r="AC124" s="15"/>
+      <c r="AA124" s="14"/>
+      <c r="AB124" s="14"/>
+      <c r="AC124" s="14"/>
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="5"/>
@@ -4978,9 +5004,9 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
-      <c r="AA125" s="15"/>
-      <c r="AB125" s="15"/>
-      <c r="AC125" s="15"/>
+      <c r="AA125" s="14"/>
+      <c r="AB125" s="14"/>
+      <c r="AC125" s="14"/>
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="5"/>
@@ -5009,9 +5035,9 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
-      <c r="AA126" s="15"/>
-      <c r="AB126" s="15"/>
-      <c r="AC126" s="15"/>
+      <c r="AA126" s="14"/>
+      <c r="AB126" s="14"/>
+      <c r="AC126" s="14"/>
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1">
       <c r="A127" s="5"/>
@@ -5040,9 +5066,9 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
-      <c r="AA127" s="15"/>
-      <c r="AB127" s="15"/>
-      <c r="AC127" s="15"/>
+      <c r="AA127" s="14"/>
+      <c r="AB127" s="14"/>
+      <c r="AC127" s="14"/>
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1">
       <c r="A128" s="5"/>
@@ -5071,9 +5097,9 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
-      <c r="AA128" s="15"/>
-      <c r="AB128" s="15"/>
-      <c r="AC128" s="15"/>
+      <c r="AA128" s="14"/>
+      <c r="AB128" s="14"/>
+      <c r="AC128" s="14"/>
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1">
       <c r="A129" s="5"/>
@@ -5102,9 +5128,9 @@
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
-      <c r="AA129" s="15"/>
-      <c r="AB129" s="15"/>
-      <c r="AC129" s="15"/>
+      <c r="AA129" s="14"/>
+      <c r="AB129" s="14"/>
+      <c r="AC129" s="14"/>
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
@@ -5133,9 +5159,9 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
-      <c r="AA130" s="15"/>
-      <c r="AB130" s="15"/>
-      <c r="AC130" s="15"/>
+      <c r="AA130" s="14"/>
+      <c r="AB130" s="14"/>
+      <c r="AC130" s="14"/>
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1">
       <c r="A131" s="5"/>
@@ -5164,9 +5190,9 @@
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
-      <c r="AA131" s="15"/>
-      <c r="AB131" s="15"/>
-      <c r="AC131" s="15"/>
+      <c r="AA131" s="14"/>
+      <c r="AB131" s="14"/>
+      <c r="AC131" s="14"/>
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1">
       <c r="A132" s="5"/>
@@ -5195,9 +5221,9 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
-      <c r="AA132" s="15"/>
-      <c r="AB132" s="15"/>
-      <c r="AC132" s="15"/>
+      <c r="AA132" s="14"/>
+      <c r="AB132" s="14"/>
+      <c r="AC132" s="14"/>
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1">
       <c r="A133" s="5"/>
@@ -5226,9 +5252,9 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
-      <c r="AA133" s="15"/>
-      <c r="AB133" s="15"/>
-      <c r="AC133" s="15"/>
+      <c r="AA133" s="14"/>
+      <c r="AB133" s="14"/>
+      <c r="AC133" s="14"/>
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1">
       <c r="A134" s="5"/>
@@ -5257,9 +5283,9 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
-      <c r="AA134" s="15"/>
-      <c r="AB134" s="15"/>
-      <c r="AC134" s="15"/>
+      <c r="AA134" s="14"/>
+      <c r="AB134" s="14"/>
+      <c r="AC134" s="14"/>
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1">
       <c r="A135" s="5"/>
@@ -5288,9 +5314,9 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
-      <c r="AA135" s="15"/>
-      <c r="AB135" s="15"/>
-      <c r="AC135" s="15"/>
+      <c r="AA135" s="14"/>
+      <c r="AB135" s="14"/>
+      <c r="AC135" s="14"/>
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1">
       <c r="A136" s="5"/>
@@ -5319,9 +5345,9 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
-      <c r="AA136" s="15"/>
-      <c r="AB136" s="15"/>
-      <c r="AC136" s="15"/>
+      <c r="AA136" s="14"/>
+      <c r="AB136" s="14"/>
+      <c r="AC136" s="14"/>
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1">
       <c r="A137" s="5"/>
@@ -5350,9 +5376,9 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
-      <c r="AA137" s="15"/>
-      <c r="AB137" s="15"/>
-      <c r="AC137" s="15"/>
+      <c r="AA137" s="14"/>
+      <c r="AB137" s="14"/>
+      <c r="AC137" s="14"/>
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1">
       <c r="A138" s="5"/>
@@ -5381,9 +5407,9 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
-      <c r="AA138" s="15"/>
-      <c r="AB138" s="15"/>
-      <c r="AC138" s="15"/>
+      <c r="AA138" s="14"/>
+      <c r="AB138" s="14"/>
+      <c r="AC138" s="14"/>
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1">
       <c r="A139" s="5"/>
@@ -5412,9 +5438,9 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
-      <c r="AA139" s="15"/>
-      <c r="AB139" s="15"/>
-      <c r="AC139" s="15"/>
+      <c r="AA139" s="14"/>
+      <c r="AB139" s="14"/>
+      <c r="AC139" s="14"/>
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1">
       <c r="A140" s="5"/>
@@ -5443,9 +5469,9 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
-      <c r="AA140" s="15"/>
-      <c r="AB140" s="15"/>
-      <c r="AC140" s="15"/>
+      <c r="AA140" s="14"/>
+      <c r="AB140" s="14"/>
+      <c r="AC140" s="14"/>
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1">
       <c r="A141" s="5"/>
@@ -5474,9 +5500,9 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
-      <c r="AA141" s="15"/>
-      <c r="AB141" s="15"/>
-      <c r="AC141" s="15"/>
+      <c r="AA141" s="14"/>
+      <c r="AB141" s="14"/>
+      <c r="AC141" s="14"/>
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1">
       <c r="A142" s="5"/>
@@ -5505,9 +5531,9 @@
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
-      <c r="AA142" s="15"/>
-      <c r="AB142" s="15"/>
-      <c r="AC142" s="15"/>
+      <c r="AA142" s="14"/>
+      <c r="AB142" s="14"/>
+      <c r="AC142" s="14"/>
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1">
       <c r="A143" s="5"/>
@@ -5536,9 +5562,9 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
-      <c r="AA143" s="15"/>
-      <c r="AB143" s="15"/>
-      <c r="AC143" s="15"/>
+      <c r="AA143" s="14"/>
+      <c r="AB143" s="14"/>
+      <c r="AC143" s="14"/>
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1">
       <c r="A144" s="5"/>
@@ -5567,9 +5593,9 @@
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
-      <c r="AA144" s="15"/>
-      <c r="AB144" s="15"/>
-      <c r="AC144" s="15"/>
+      <c r="AA144" s="14"/>
+      <c r="AB144" s="14"/>
+      <c r="AC144" s="14"/>
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
       <c r="A145" s="5"/>
@@ -5598,9 +5624,9 @@
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
-      <c r="AA145" s="15"/>
-      <c r="AB145" s="15"/>
-      <c r="AC145" s="15"/>
+      <c r="AA145" s="14"/>
+      <c r="AB145" s="14"/>
+      <c r="AC145" s="14"/>
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1">
       <c r="A146" s="5"/>
@@ -5629,9 +5655,9 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
-      <c r="AA146" s="15"/>
-      <c r="AB146" s="15"/>
-      <c r="AC146" s="15"/>
+      <c r="AA146" s="14"/>
+      <c r="AB146" s="14"/>
+      <c r="AC146" s="14"/>
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
       <c r="A147" s="5"/>
@@ -5660,9 +5686,9 @@
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
-      <c r="AA147" s="15"/>
-      <c r="AB147" s="15"/>
-      <c r="AC147" s="15"/>
+      <c r="AA147" s="14"/>
+      <c r="AB147" s="14"/>
+      <c r="AC147" s="14"/>
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1">
       <c r="A148" s="5"/>
@@ -5691,9 +5717,9 @@
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
-      <c r="AA148" s="15"/>
-      <c r="AB148" s="15"/>
-      <c r="AC148" s="15"/>
+      <c r="AA148" s="14"/>
+      <c r="AB148" s="14"/>
+      <c r="AC148" s="14"/>
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1">
       <c r="A149" s="5"/>
@@ -5722,9 +5748,9 @@
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
-      <c r="AA149" s="15"/>
-      <c r="AB149" s="15"/>
-      <c r="AC149" s="15"/>
+      <c r="AA149" s="14"/>
+      <c r="AB149" s="14"/>
+      <c r="AC149" s="14"/>
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1">
       <c r="A150" s="5"/>
@@ -5753,9 +5779,9 @@
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
-      <c r="AA150" s="15"/>
-      <c r="AB150" s="15"/>
-      <c r="AC150" s="15"/>
+      <c r="AA150" s="14"/>
+      <c r="AB150" s="14"/>
+      <c r="AC150" s="14"/>
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1">
       <c r="A151" s="5"/>
@@ -5784,9 +5810,9 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
-      <c r="AA151" s="15"/>
-      <c r="AB151" s="15"/>
-      <c r="AC151" s="15"/>
+      <c r="AA151" s="14"/>
+      <c r="AB151" s="14"/>
+      <c r="AC151" s="14"/>
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1">
       <c r="A152" s="5"/>
@@ -5815,9 +5841,9 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
-      <c r="AA152" s="15"/>
-      <c r="AB152" s="15"/>
-      <c r="AC152" s="15"/>
+      <c r="AA152" s="14"/>
+      <c r="AB152" s="14"/>
+      <c r="AC152" s="14"/>
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
       <c r="A153" s="5"/>
@@ -5846,9 +5872,9 @@
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
-      <c r="AA153" s="15"/>
-      <c r="AB153" s="15"/>
-      <c r="AC153" s="15"/>
+      <c r="AA153" s="14"/>
+      <c r="AB153" s="14"/>
+      <c r="AC153" s="14"/>
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1">
       <c r="A154" s="5"/>
@@ -5877,9 +5903,9 @@
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
-      <c r="AA154" s="15"/>
-      <c r="AB154" s="15"/>
-      <c r="AC154" s="15"/>
+      <c r="AA154" s="14"/>
+      <c r="AB154" s="14"/>
+      <c r="AC154" s="14"/>
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1">
       <c r="A155" s="5"/>
@@ -5908,9 +5934,9 @@
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
-      <c r="AA155" s="15"/>
-      <c r="AB155" s="15"/>
-      <c r="AC155" s="15"/>
+      <c r="AA155" s="14"/>
+      <c r="AB155" s="14"/>
+      <c r="AC155" s="14"/>
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1">
       <c r="A156" s="5"/>
@@ -5939,9 +5965,9 @@
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
-      <c r="AA156" s="15"/>
-      <c r="AB156" s="15"/>
-      <c r="AC156" s="15"/>
+      <c r="AA156" s="14"/>
+      <c r="AB156" s="14"/>
+      <c r="AC156" s="14"/>
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
       <c r="A157" s="5"/>
@@ -5970,9 +5996,9 @@
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
-      <c r="AA157" s="15"/>
-      <c r="AB157" s="15"/>
-      <c r="AC157" s="15"/>
+      <c r="AA157" s="14"/>
+      <c r="AB157" s="14"/>
+      <c r="AC157" s="14"/>
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
       <c r="A158" s="5"/>
@@ -6001,9 +6027,9 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
-      <c r="AA158" s="15"/>
-      <c r="AB158" s="15"/>
-      <c r="AC158" s="15"/>
+      <c r="AA158" s="14"/>
+      <c r="AB158" s="14"/>
+      <c r="AC158" s="14"/>
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
       <c r="A159" s="5"/>
@@ -29582,13 +29608,13 @@
       <c r="Z1000" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F34">
-    <sortCondition descending="1" ref="F1:F34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
+    <sortCondition descending="1" ref="F2:F34"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="I1:L4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>